--- a/modules/module_2/lab/kit_inventory.xlsx
+++ b/modules/module_2/lab/kit_inventory.xlsx
@@ -91,23 +91,7 @@
     <t xml:space="preserve">Button</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">100 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">µF 25V resistor</t>
-    </r>
+    <t xml:space="preserve">100 µF 25V resistor</t>
   </si>
   <si>
     <t xml:space="preserve">Door lock</t>
@@ -141,11 +125,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,12 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -217,12 +196,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,230 +289,230 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>2</v>
       </c>
     </row>
